--- a/Simulations/Test2.xlsx
+++ b/Simulations/Test2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t xml:space="preserve">Parameter</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t xml:space="preserve">lights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DICT_4X4_50_s1000_id6.sdf</t>
   </si>
 </sst>
 </file>
@@ -159,12 +162,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -191,7 +198,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.9"/>
@@ -247,7 +254,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.2"/>
@@ -348,13 +355,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.2"/>
@@ -385,7 +392,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -393,7 +400,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -428,7 +435,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>19</v>
@@ -438,6 +445,9 @@
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
